--- a/Dash_Dashboard/Dados_Agenda.xlsx
+++ b/Dash_Dashboard/Dados_Agenda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,38 +735,6 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
